--- a/Data Mix/ResultatExcel/Bourgogne.xlsx
+++ b/Data Mix/ResultatExcel/Bourgogne.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I118"/>
+  <dimension ref="A1:J118"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -451,30 +451,35 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
+          <t>Production</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
           <t>Thermique</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>Nucleaire</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>Eolien</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>Solaire</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>Hydraulique</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>BioEnergie</t>
         </is>
@@ -495,21 +500,24 @@
         <v>4704866</v>
       </c>
       <c r="D2" t="n">
+        <v>795867</v>
+      </c>
+      <c r="E2" t="n">
         <v>487702</v>
       </c>
-      <c r="E2" t="n">
-        <v>0</v>
-      </c>
       <c r="F2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2" t="n">
         <v>42601</v>
       </c>
-      <c r="G2" t="n">
+      <c r="H2" t="n">
         <v>4347</v>
       </c>
-      <c r="H2" t="n">
+      <c r="I2" t="n">
         <v>241036</v>
       </c>
-      <c r="I2" t="n">
+      <c r="J2" t="n">
         <v>20181</v>
       </c>
     </row>
@@ -528,21 +536,24 @@
         <v>9111121</v>
       </c>
       <c r="D3" t="n">
+        <v>1541711</v>
+      </c>
+      <c r="E3" t="n">
         <v>908004</v>
       </c>
-      <c r="E3" t="n">
-        <v>0</v>
-      </c>
       <c r="F3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G3" t="n">
         <v>91691</v>
       </c>
-      <c r="G3" t="n">
+      <c r="H3" t="n">
         <v>14950</v>
       </c>
-      <c r="H3" t="n">
+      <c r="I3" t="n">
         <v>488373</v>
       </c>
-      <c r="I3" t="n">
+      <c r="J3" t="n">
         <v>38693</v>
       </c>
     </row>
@@ -561,21 +572,24 @@
         <v>13494401</v>
       </c>
       <c r="D4" t="n">
+        <v>2210081</v>
+      </c>
+      <c r="E4" t="n">
         <v>1325868</v>
       </c>
-      <c r="E4" t="n">
-        <v>0</v>
-      </c>
       <c r="F4" t="n">
+        <v>0</v>
+      </c>
+      <c r="G4" t="n">
         <v>134295</v>
       </c>
-      <c r="G4" t="n">
+      <c r="H4" t="n">
         <v>34785</v>
       </c>
-      <c r="H4" t="n">
+      <c r="I4" t="n">
         <v>655507</v>
       </c>
-      <c r="I4" t="n">
+      <c r="J4" t="n">
         <v>59626</v>
       </c>
     </row>
@@ -594,21 +608,24 @@
         <v>17085400</v>
       </c>
       <c r="D5" t="n">
+        <v>2560397</v>
+      </c>
+      <c r="E5" t="n">
         <v>1391974</v>
       </c>
-      <c r="E5" t="n">
-        <v>0</v>
-      </c>
       <c r="F5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G5" t="n">
         <v>184686</v>
       </c>
-      <c r="G5" t="n">
+      <c r="H5" t="n">
         <v>62636</v>
       </c>
-      <c r="H5" t="n">
+      <c r="I5" t="n">
         <v>846566</v>
       </c>
-      <c r="I5" t="n">
+      <c r="J5" t="n">
         <v>74535</v>
       </c>
     </row>
@@ -627,21 +644,24 @@
         <v>20529815</v>
       </c>
       <c r="D6" t="n">
+        <v>2929720</v>
+      </c>
+      <c r="E6" t="n">
         <v>1433709</v>
       </c>
-      <c r="E6" t="n">
-        <v>0</v>
-      </c>
       <c r="F6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G6" t="n">
         <v>220766</v>
       </c>
-      <c r="G6" t="n">
+      <c r="H6" t="n">
         <v>92583</v>
       </c>
-      <c r="H6" t="n">
+      <c r="I6" t="n">
         <v>1087592</v>
       </c>
-      <c r="I6" t="n">
+      <c r="J6" t="n">
         <v>95070</v>
       </c>
     </row>
@@ -660,21 +680,24 @@
         <v>23578875</v>
       </c>
       <c r="D7" t="n">
+        <v>3218771</v>
+      </c>
+      <c r="E7" t="n">
         <v>1474149</v>
       </c>
-      <c r="E7" t="n">
-        <v>0</v>
-      </c>
       <c r="F7" t="n">
+        <v>0</v>
+      </c>
+      <c r="G7" t="n">
         <v>257437</v>
       </c>
-      <c r="G7" t="n">
+      <c r="H7" t="n">
         <v>131019</v>
       </c>
-      <c r="H7" t="n">
+      <c r="I7" t="n">
         <v>1248836</v>
       </c>
-      <c r="I7" t="n">
+      <c r="J7" t="n">
         <v>107330</v>
       </c>
     </row>
@@ -693,21 +716,24 @@
         <v>26699587</v>
       </c>
       <c r="D8" t="n">
+        <v>3439306</v>
+      </c>
+      <c r="E8" t="n">
         <v>1513087</v>
       </c>
-      <c r="E8" t="n">
-        <v>0</v>
-      </c>
       <c r="F8" t="n">
+        <v>0</v>
+      </c>
+      <c r="G8" t="n">
         <v>291648</v>
       </c>
-      <c r="G8" t="n">
+      <c r="H8" t="n">
         <v>177225</v>
       </c>
-      <c r="H8" t="n">
+      <c r="I8" t="n">
         <v>1337914</v>
       </c>
-      <c r="I8" t="n">
+      <c r="J8" t="n">
         <v>119432</v>
       </c>
     </row>
@@ -726,21 +752,24 @@
         <v>29361441</v>
       </c>
       <c r="D9" t="n">
+        <v>3641606</v>
+      </c>
+      <c r="E9" t="n">
         <v>1565500</v>
       </c>
-      <c r="E9" t="n">
-        <v>0</v>
-      </c>
       <c r="F9" t="n">
+        <v>0</v>
+      </c>
+      <c r="G9" t="n">
         <v>313570</v>
       </c>
-      <c r="G9" t="n">
+      <c r="H9" t="n">
         <v>219869</v>
       </c>
-      <c r="H9" t="n">
+      <c r="I9" t="n">
         <v>1405567</v>
       </c>
-      <c r="I9" t="n">
+      <c r="J9" t="n">
         <v>137100</v>
       </c>
     </row>
@@ -759,21 +788,24 @@
         <v>32397067</v>
       </c>
       <c r="D10" t="n">
+        <v>4055414</v>
+      </c>
+      <c r="E10" t="n">
         <v>1669247</v>
       </c>
-      <c r="E10" t="n">
-        <v>0</v>
-      </c>
       <c r="F10" t="n">
+        <v>0</v>
+      </c>
+      <c r="G10" t="n">
         <v>347603</v>
       </c>
-      <c r="G10" t="n">
+      <c r="H10" t="n">
         <v>250102</v>
       </c>
-      <c r="H10" t="n">
+      <c r="I10" t="n">
         <v>1630512</v>
       </c>
-      <c r="I10" t="n">
+      <c r="J10" t="n">
         <v>157950</v>
       </c>
     </row>
@@ -792,21 +824,24 @@
         <v>35859461</v>
       </c>
       <c r="D11" t="n">
+        <v>4367657</v>
+      </c>
+      <c r="E11" t="n">
         <v>1729897</v>
       </c>
-      <c r="E11" t="n">
-        <v>0</v>
-      </c>
       <c r="F11" t="n">
+        <v>0</v>
+      </c>
+      <c r="G11" t="n">
         <v>409317</v>
       </c>
-      <c r="G11" t="n">
+      <c r="H11" t="n">
         <v>270046</v>
       </c>
-      <c r="H11" t="n">
+      <c r="I11" t="n">
         <v>1782566</v>
       </c>
-      <c r="I11" t="n">
+      <c r="J11" t="n">
         <v>175831</v>
       </c>
     </row>
@@ -825,21 +860,24 @@
         <v>39951744</v>
       </c>
       <c r="D12" t="n">
+        <v>4893352</v>
+      </c>
+      <c r="E12" t="n">
         <v>1982106</v>
       </c>
-      <c r="E12" t="n">
-        <v>0</v>
-      </c>
       <c r="F12" t="n">
+        <v>0</v>
+      </c>
+      <c r="G12" t="n">
         <v>487733</v>
       </c>
-      <c r="G12" t="n">
+      <c r="H12" t="n">
         <v>279925</v>
       </c>
-      <c r="H12" t="n">
+      <c r="I12" t="n">
         <v>1946317</v>
       </c>
-      <c r="I12" t="n">
+      <c r="J12" t="n">
         <v>197271</v>
       </c>
     </row>
@@ -858,21 +896,24 @@
         <v>44410924</v>
       </c>
       <c r="D13" t="n">
+        <v>5320653</v>
+      </c>
+      <c r="E13" t="n">
         <v>2139425</v>
       </c>
-      <c r="E13" t="n">
-        <v>0</v>
-      </c>
       <c r="F13" t="n">
+        <v>0</v>
+      </c>
+      <c r="G13" t="n">
         <v>561235</v>
       </c>
-      <c r="G13" t="n">
+      <c r="H13" t="n">
         <v>293134</v>
       </c>
-      <c r="H13" t="n">
+      <c r="I13" t="n">
         <v>2107240</v>
       </c>
-      <c r="I13" t="n">
+      <c r="J13" t="n">
         <v>219619</v>
       </c>
     </row>
@@ -891,21 +932,24 @@
         <v>297184702</v>
       </c>
       <c r="D14" t="n">
+        <v>38974535</v>
+      </c>
+      <c r="E14" t="n">
         <v>17620668</v>
       </c>
-      <c r="E14" t="n">
-        <v>0</v>
-      </c>
       <c r="F14" t="n">
+        <v>0</v>
+      </c>
+      <c r="G14" t="n">
         <v>3342582</v>
       </c>
-      <c r="G14" t="n">
+      <c r="H14" t="n">
         <v>1830621</v>
       </c>
-      <c r="H14" t="n">
+      <c r="I14" t="n">
         <v>14778026</v>
       </c>
-      <c r="I14" t="n">
+      <c r="J14" t="n">
         <v>1402638</v>
       </c>
     </row>
@@ -924,21 +968,24 @@
         <v>48728941</v>
       </c>
       <c r="D15" t="n">
+        <v>5882960</v>
+      </c>
+      <c r="E15" t="n">
         <v>2319641</v>
       </c>
-      <c r="E15" t="n">
-        <v>0</v>
-      </c>
       <c r="F15" t="n">
+        <v>0</v>
+      </c>
+      <c r="G15" t="n">
         <v>638034</v>
       </c>
-      <c r="G15" t="n">
+      <c r="H15" t="n">
         <v>304136</v>
       </c>
-      <c r="H15" t="n">
+      <c r="I15" t="n">
         <v>2374120</v>
       </c>
-      <c r="I15" t="n">
+      <c r="J15" t="n">
         <v>247029</v>
       </c>
     </row>
@@ -957,21 +1004,24 @@
         <v>52611037</v>
       </c>
       <c r="D16" t="n">
+        <v>6325802</v>
+      </c>
+      <c r="E16" t="n">
         <v>2452205</v>
       </c>
-      <c r="E16" t="n">
-        <v>0</v>
-      </c>
       <c r="F16" t="n">
+        <v>0</v>
+      </c>
+      <c r="G16" t="n">
         <v>740020</v>
       </c>
-      <c r="G16" t="n">
+      <c r="H16" t="n">
         <v>320425</v>
       </c>
-      <c r="H16" t="n">
+      <c r="I16" t="n">
         <v>2540554</v>
       </c>
-      <c r="I16" t="n">
+      <c r="J16" t="n">
         <v>272598</v>
       </c>
     </row>
@@ -990,21 +1040,24 @@
         <v>56395230</v>
       </c>
       <c r="D17" t="n">
+        <v>6756942</v>
+      </c>
+      <c r="E17" t="n">
         <v>2602809</v>
       </c>
-      <c r="E17" t="n">
-        <v>0</v>
-      </c>
       <c r="F17" t="n">
+        <v>0</v>
+      </c>
+      <c r="G17" t="n">
         <v>790213</v>
       </c>
-      <c r="G17" t="n">
+      <c r="H17" t="n">
         <v>358507</v>
       </c>
-      <c r="H17" t="n">
+      <c r="I17" t="n">
         <v>2701462</v>
       </c>
-      <c r="I17" t="n">
+      <c r="J17" t="n">
         <v>303951</v>
       </c>
     </row>
@@ -1023,21 +1076,24 @@
         <v>59635486</v>
       </c>
       <c r="D18" t="n">
+        <v>6958618</v>
+      </c>
+      <c r="E18" t="n">
         <v>2642235</v>
       </c>
-      <c r="E18" t="n">
-        <v>0</v>
-      </c>
       <c r="F18" t="n">
+        <v>0</v>
+      </c>
+      <c r="G18" t="n">
         <v>828620</v>
       </c>
-      <c r="G18" t="n">
+      <c r="H18" t="n">
         <v>399668</v>
       </c>
-      <c r="H18" t="n">
+      <c r="I18" t="n">
         <v>2764704</v>
       </c>
-      <c r="I18" t="n">
+      <c r="J18" t="n">
         <v>323391</v>
       </c>
     </row>
@@ -1056,21 +1112,24 @@
         <v>62765184</v>
       </c>
       <c r="D19" t="n">
+        <v>7231937</v>
+      </c>
+      <c r="E19" t="n">
         <v>2685488</v>
       </c>
-      <c r="E19" t="n">
-        <v>0</v>
-      </c>
       <c r="F19" t="n">
+        <v>0</v>
+      </c>
+      <c r="G19" t="n">
         <v>894834</v>
       </c>
-      <c r="G19" t="n">
+      <c r="H19" t="n">
         <v>446361</v>
       </c>
-      <c r="H19" t="n">
+      <c r="I19" t="n">
         <v>2856957</v>
       </c>
-      <c r="I19" t="n">
+      <c r="J19" t="n">
         <v>348297</v>
       </c>
     </row>
@@ -1089,21 +1148,24 @@
         <v>65656322</v>
       </c>
       <c r="D20" t="n">
+        <v>7414306</v>
+      </c>
+      <c r="E20" t="n">
         <v>2708728</v>
       </c>
-      <c r="E20" t="n">
-        <v>0</v>
-      </c>
       <c r="F20" t="n">
+        <v>0</v>
+      </c>
+      <c r="G20" t="n">
         <v>946524</v>
       </c>
-      <c r="G20" t="n">
+      <c r="H20" t="n">
         <v>500454</v>
       </c>
-      <c r="H20" t="n">
+      <c r="I20" t="n">
         <v>2893421</v>
       </c>
-      <c r="I20" t="n">
+      <c r="J20" t="n">
         <v>365179</v>
       </c>
     </row>
@@ -1122,21 +1184,24 @@
         <v>68652592</v>
       </c>
       <c r="D21" t="n">
+        <v>7715947</v>
+      </c>
+      <c r="E21" t="n">
         <v>2731075</v>
       </c>
-      <c r="E21" t="n">
-        <v>0</v>
-      </c>
       <c r="F21" t="n">
+        <v>0</v>
+      </c>
+      <c r="G21" t="n">
         <v>988472</v>
       </c>
-      <c r="G21" t="n">
+      <c r="H21" t="n">
         <v>541061</v>
       </c>
-      <c r="H21" t="n">
+      <c r="I21" t="n">
         <v>3062064</v>
       </c>
-      <c r="I21" t="n">
+      <c r="J21" t="n">
         <v>393275</v>
       </c>
     </row>
@@ -1155,21 +1220,24 @@
         <v>71231303</v>
       </c>
       <c r="D22" t="n">
+        <v>7997791</v>
+      </c>
+      <c r="E22" t="n">
         <v>2753978</v>
       </c>
-      <c r="E22" t="n">
-        <v>0</v>
-      </c>
       <c r="F22" t="n">
+        <v>0</v>
+      </c>
+      <c r="G22" t="n">
         <v>1031136</v>
       </c>
-      <c r="G22" t="n">
+      <c r="H22" t="n">
         <v>584417</v>
       </c>
-      <c r="H22" t="n">
+      <c r="I22" t="n">
         <v>3208510</v>
       </c>
-      <c r="I22" t="n">
+      <c r="J22" t="n">
         <v>419750</v>
       </c>
     </row>
@@ -1188,21 +1256,24 @@
         <v>74190101</v>
       </c>
       <c r="D23" t="n">
+        <v>8266070</v>
+      </c>
+      <c r="E23" t="n">
         <v>2778728</v>
       </c>
-      <c r="E23" t="n">
-        <v>0</v>
-      </c>
       <c r="F23" t="n">
+        <v>0</v>
+      </c>
+      <c r="G23" t="n">
         <v>1070992</v>
       </c>
-      <c r="G23" t="n">
+      <c r="H23" t="n">
         <v>628402</v>
       </c>
-      <c r="H23" t="n">
+      <c r="I23" t="n">
         <v>3340766</v>
       </c>
-      <c r="I23" t="n">
+      <c r="J23" t="n">
         <v>447182</v>
       </c>
     </row>
@@ -1221,21 +1292,24 @@
         <v>77530930</v>
       </c>
       <c r="D24" t="n">
+        <v>8483427</v>
+      </c>
+      <c r="E24" t="n">
         <v>2806529</v>
       </c>
-      <c r="E24" t="n">
-        <v>0</v>
-      </c>
       <c r="F24" t="n">
+        <v>0</v>
+      </c>
+      <c r="G24" t="n">
         <v>1126395</v>
       </c>
-      <c r="G24" t="n">
+      <c r="H24" t="n">
         <v>656196</v>
       </c>
-      <c r="H24" t="n">
+      <c r="I24" t="n">
         <v>3420738</v>
       </c>
-      <c r="I24" t="n">
+      <c r="J24" t="n">
         <v>473569</v>
       </c>
     </row>
@@ -1254,21 +1328,24 @@
         <v>81149188</v>
       </c>
       <c r="D25" t="n">
+        <v>8863534</v>
+      </c>
+      <c r="E25" t="n">
         <v>2971695</v>
       </c>
-      <c r="E25" t="n">
-        <v>0</v>
-      </c>
       <c r="F25" t="n">
+        <v>0</v>
+      </c>
+      <c r="G25" t="n">
         <v>1199182</v>
       </c>
-      <c r="G25" t="n">
+      <c r="H25" t="n">
         <v>671700</v>
       </c>
-      <c r="H25" t="n">
+      <c r="I25" t="n">
         <v>3517344</v>
       </c>
-      <c r="I25" t="n">
+      <c r="J25" t="n">
         <v>503613</v>
       </c>
     </row>
@@ -1287,21 +1364,24 @@
         <v>85238179</v>
       </c>
       <c r="D26" t="n">
+        <v>9257811</v>
+      </c>
+      <c r="E26" t="n">
         <v>3116565</v>
       </c>
-      <c r="E26" t="n">
-        <v>0</v>
-      </c>
       <c r="F26" t="n">
+        <v>0</v>
+      </c>
+      <c r="G26" t="n">
         <v>1310037</v>
       </c>
-      <c r="G26" t="n">
+      <c r="H26" t="n">
         <v>678691</v>
       </c>
-      <c r="H26" t="n">
+      <c r="I26" t="n">
         <v>3618612</v>
       </c>
-      <c r="I26" t="n">
+      <c r="J26" t="n">
         <v>533906</v>
       </c>
     </row>
@@ -1320,21 +1400,24 @@
         <v>1398153897</v>
       </c>
       <c r="D27" t="n">
+        <v>169104215</v>
+      </c>
+      <c r="E27" t="n">
         <v>67811012</v>
       </c>
-      <c r="E27" t="n">
-        <v>0</v>
-      </c>
       <c r="F27" t="n">
+        <v>0</v>
+      </c>
+      <c r="G27" t="n">
         <v>18249623</v>
       </c>
-      <c r="G27" t="n">
+      <c r="H27" t="n">
         <v>9751260</v>
       </c>
-      <c r="H27" t="n">
+      <c r="I27" t="n">
         <v>65855304</v>
       </c>
-      <c r="I27" t="n">
+      <c r="J27" t="n">
         <v>7437016</v>
       </c>
     </row>
@@ -1353,21 +1436,24 @@
         <v>89935052</v>
       </c>
       <c r="D28" t="n">
+        <v>9881694</v>
+      </c>
+      <c r="E28" t="n">
         <v>3302629</v>
       </c>
-      <c r="E28" t="n">
-        <v>0</v>
-      </c>
       <c r="F28" t="n">
+        <v>0</v>
+      </c>
+      <c r="G28" t="n">
         <v>1461203</v>
       </c>
-      <c r="G28" t="n">
+      <c r="H28" t="n">
         <v>688603</v>
       </c>
-      <c r="H28" t="n">
+      <c r="I28" t="n">
         <v>3862472</v>
       </c>
-      <c r="I28" t="n">
+      <c r="J28" t="n">
         <v>566787</v>
       </c>
     </row>
@@ -1386,21 +1472,24 @@
         <v>94293330</v>
       </c>
       <c r="D29" t="n">
+        <v>10461332</v>
+      </c>
+      <c r="E29" t="n">
         <v>3506375</v>
       </c>
-      <c r="E29" t="n">
-        <v>0</v>
-      </c>
       <c r="F29" t="n">
+        <v>0</v>
+      </c>
+      <c r="G29" t="n">
         <v>1584131</v>
       </c>
-      <c r="G29" t="n">
+      <c r="H29" t="n">
         <v>708849</v>
       </c>
-      <c r="H29" t="n">
+      <c r="I29" t="n">
         <v>4067198</v>
       </c>
-      <c r="I29" t="n">
+      <c r="J29" t="n">
         <v>594779</v>
       </c>
     </row>
@@ -1419,21 +1508,24 @@
         <v>98324630</v>
       </c>
       <c r="D30" t="n">
+        <v>11036902</v>
+      </c>
+      <c r="E30" t="n">
         <v>3716812</v>
       </c>
-      <c r="E30" t="n">
-        <v>0</v>
-      </c>
       <c r="F30" t="n">
+        <v>0</v>
+      </c>
+      <c r="G30" t="n">
         <v>1692441</v>
       </c>
-      <c r="G30" t="n">
+      <c r="H30" t="n">
         <v>744167</v>
       </c>
-      <c r="H30" t="n">
+      <c r="I30" t="n">
         <v>4254886</v>
       </c>
-      <c r="I30" t="n">
+      <c r="J30" t="n">
         <v>628596</v>
       </c>
     </row>
@@ -1452,21 +1544,24 @@
         <v>101707595</v>
       </c>
       <c r="D31" t="n">
+        <v>11441579</v>
+      </c>
+      <c r="E31" t="n">
         <v>3769373</v>
       </c>
-      <c r="E31" t="n">
-        <v>0</v>
-      </c>
       <c r="F31" t="n">
+        <v>0</v>
+      </c>
+      <c r="G31" t="n">
         <v>1793078</v>
       </c>
-      <c r="G31" t="n">
+      <c r="H31" t="n">
         <v>792416</v>
       </c>
-      <c r="H31" t="n">
+      <c r="I31" t="n">
         <v>4436275</v>
       </c>
-      <c r="I31" t="n">
+      <c r="J31" t="n">
         <v>650437</v>
       </c>
     </row>
@@ -1485,21 +1580,24 @@
         <v>104729799</v>
       </c>
       <c r="D32" t="n">
+        <v>11833960</v>
+      </c>
+      <c r="E32" t="n">
         <v>3808666</v>
       </c>
-      <c r="E32" t="n">
-        <v>0</v>
-      </c>
       <c r="F32" t="n">
+        <v>0</v>
+      </c>
+      <c r="G32" t="n">
         <v>1896060</v>
       </c>
-      <c r="G32" t="n">
+      <c r="H32" t="n">
         <v>843104</v>
       </c>
-      <c r="H32" t="n">
+      <c r="I32" t="n">
         <v>4603069</v>
       </c>
-      <c r="I32" t="n">
+      <c r="J32" t="n">
         <v>683061</v>
       </c>
     </row>
@@ -1518,21 +1616,24 @@
         <v>107773158</v>
       </c>
       <c r="D33" t="n">
+        <v>12078336</v>
+      </c>
+      <c r="E33" t="n">
         <v>3847419</v>
       </c>
-      <c r="E33" t="n">
-        <v>0</v>
-      </c>
       <c r="F33" t="n">
+        <v>0</v>
+      </c>
+      <c r="G33" t="n">
         <v>1965511</v>
       </c>
-      <c r="G33" t="n">
+      <c r="H33" t="n">
         <v>900426</v>
       </c>
-      <c r="H33" t="n">
+      <c r="I33" t="n">
         <v>4655600</v>
       </c>
-      <c r="I33" t="n">
+      <c r="J33" t="n">
         <v>709380</v>
       </c>
     </row>
@@ -1551,21 +1652,24 @@
         <v>110883642</v>
       </c>
       <c r="D34" t="n">
+        <v>12329446</v>
+      </c>
+      <c r="E34" t="n">
         <v>3884781</v>
       </c>
-      <c r="E34" t="n">
-        <v>0</v>
-      </c>
       <c r="F34" t="n">
+        <v>0</v>
+      </c>
+      <c r="G34" t="n">
         <v>2051291</v>
       </c>
-      <c r="G34" t="n">
+      <c r="H34" t="n">
         <v>959432</v>
       </c>
-      <c r="H34" t="n">
+      <c r="I34" t="n">
         <v>4693777</v>
       </c>
-      <c r="I34" t="n">
+      <c r="J34" t="n">
         <v>740165</v>
       </c>
     </row>
@@ -1584,21 +1688,24 @@
         <v>113598070</v>
       </c>
       <c r="D35" t="n">
+        <v>12559801</v>
+      </c>
+      <c r="E35" t="n">
         <v>3920079</v>
       </c>
-      <c r="E35" t="n">
-        <v>0</v>
-      </c>
       <c r="F35" t="n">
+        <v>0</v>
+      </c>
+      <c r="G35" t="n">
         <v>2127456</v>
       </c>
-      <c r="G35" t="n">
+      <c r="H35" t="n">
         <v>1011693</v>
       </c>
-      <c r="H35" t="n">
+      <c r="I35" t="n">
         <v>4729111</v>
       </c>
-      <c r="I35" t="n">
+      <c r="J35" t="n">
         <v>771462</v>
       </c>
     </row>
@@ -1617,21 +1724,24 @@
         <v>116696649</v>
       </c>
       <c r="D36" t="n">
+        <v>12889301</v>
+      </c>
+      <c r="E36" t="n">
         <v>3951830</v>
       </c>
-      <c r="E36" t="n">
-        <v>0</v>
-      </c>
       <c r="F36" t="n">
+        <v>0</v>
+      </c>
+      <c r="G36" t="n">
         <v>2255383</v>
       </c>
-      <c r="G36" t="n">
+      <c r="H36" t="n">
         <v>1055103</v>
       </c>
-      <c r="H36" t="n">
+      <c r="I36" t="n">
         <v>4827321</v>
       </c>
-      <c r="I36" t="n">
+      <c r="J36" t="n">
         <v>799664</v>
       </c>
     </row>
@@ -1650,21 +1760,24 @@
         <v>120332858</v>
       </c>
       <c r="D37" t="n">
+        <v>13152699</v>
+      </c>
+      <c r="E37" t="n">
         <v>3993970</v>
       </c>
-      <c r="E37" t="n">
-        <v>0</v>
-      </c>
       <c r="F37" t="n">
+        <v>0</v>
+      </c>
+      <c r="G37" t="n">
         <v>2346403</v>
       </c>
-      <c r="G37" t="n">
+      <c r="H37" t="n">
         <v>1082818</v>
       </c>
-      <c r="H37" t="n">
+      <c r="I37" t="n">
         <v>4907066</v>
       </c>
-      <c r="I37" t="n">
+      <c r="J37" t="n">
         <v>822442</v>
       </c>
     </row>
@@ -1683,21 +1796,24 @@
         <v>124160908</v>
       </c>
       <c r="D38" t="n">
+        <v>13614763</v>
+      </c>
+      <c r="E38" t="n">
         <v>4152347</v>
       </c>
-      <c r="E38" t="n">
-        <v>0</v>
-      </c>
       <c r="F38" t="n">
+        <v>0</v>
+      </c>
+      <c r="G38" t="n">
         <v>2526070</v>
       </c>
-      <c r="G38" t="n">
+      <c r="H38" t="n">
         <v>1100967</v>
       </c>
-      <c r="H38" t="n">
+      <c r="I38" t="n">
         <v>4981569</v>
       </c>
-      <c r="I38" t="n">
+      <c r="J38" t="n">
         <v>853810</v>
       </c>
     </row>
@@ -1716,21 +1832,24 @@
         <v>128310569</v>
       </c>
       <c r="D39" t="n">
+        <v>14121388</v>
+      </c>
+      <c r="E39" t="n">
         <v>4317863</v>
       </c>
-      <c r="E39" t="n">
-        <v>0</v>
-      </c>
       <c r="F39" t="n">
+        <v>0</v>
+      </c>
+      <c r="G39" t="n">
         <v>2700983</v>
       </c>
-      <c r="G39" t="n">
+      <c r="H39" t="n">
         <v>1118461</v>
       </c>
-      <c r="H39" t="n">
+      <c r="I39" t="n">
         <v>5096757</v>
       </c>
-      <c r="I39" t="n">
+      <c r="J39" t="n">
         <v>887324</v>
       </c>
     </row>
@@ -1749,21 +1868,24 @@
         <v>4107054054</v>
       </c>
       <c r="D40" t="n">
+        <v>483609631</v>
+      </c>
+      <c r="E40" t="n">
         <v>181794168</v>
       </c>
-      <c r="E40" t="n">
-        <v>0</v>
-      </c>
       <c r="F40" t="n">
+        <v>0</v>
+      </c>
+      <c r="G40" t="n">
         <v>60899256</v>
       </c>
-      <c r="G40" t="n">
+      <c r="H40" t="n">
         <v>30508559</v>
       </c>
-      <c r="H40" t="n">
+      <c r="I40" t="n">
         <v>186825709</v>
       </c>
-      <c r="I40" t="n">
+      <c r="J40" t="n">
         <v>23581939</v>
       </c>
     </row>
@@ -1782,21 +1904,24 @@
         <v>132779747</v>
       </c>
       <c r="D41" t="n">
+        <v>14781323</v>
+      </c>
+      <c r="E41" t="n">
         <v>4532296</v>
       </c>
-      <c r="E41" t="n">
-        <v>0</v>
-      </c>
       <c r="F41" t="n">
+        <v>0</v>
+      </c>
+      <c r="G41" t="n">
         <v>2909242</v>
       </c>
-      <c r="G41" t="n">
+      <c r="H41" t="n">
         <v>1131133</v>
       </c>
-      <c r="H41" t="n">
+      <c r="I41" t="n">
         <v>5291402</v>
       </c>
-      <c r="I41" t="n">
+      <c r="J41" t="n">
         <v>917250</v>
       </c>
     </row>
@@ -1815,21 +1940,24 @@
         <v>136923890</v>
       </c>
       <c r="D42" t="n">
+        <v>15508983</v>
+      </c>
+      <c r="E42" t="n">
         <v>4719532</v>
       </c>
-      <c r="E42" t="n">
-        <v>0</v>
-      </c>
       <c r="F42" t="n">
+        <v>0</v>
+      </c>
+      <c r="G42" t="n">
         <v>3131417</v>
       </c>
-      <c r="G42" t="n">
+      <c r="H42" t="n">
         <v>1146538</v>
       </c>
-      <c r="H42" t="n">
+      <c r="I42" t="n">
         <v>5566341</v>
       </c>
-      <c r="I42" t="n">
+      <c r="J42" t="n">
         <v>945155</v>
       </c>
     </row>
@@ -1848,21 +1976,24 @@
         <v>141157044</v>
       </c>
       <c r="D43" t="n">
+        <v>16161861</v>
+      </c>
+      <c r="E43" t="n">
         <v>4905927</v>
       </c>
-      <c r="E43" t="n">
-        <v>0</v>
-      </c>
       <c r="F43" t="n">
+        <v>0</v>
+      </c>
+      <c r="G43" t="n">
         <v>3314468</v>
       </c>
-      <c r="G43" t="n">
+      <c r="H43" t="n">
         <v>1181298</v>
       </c>
-      <c r="H43" t="n">
+      <c r="I43" t="n">
         <v>5782590</v>
       </c>
-      <c r="I43" t="n">
+      <c r="J43" t="n">
         <v>977578</v>
       </c>
     </row>
@@ -1881,21 +2012,24 @@
         <v>144625064</v>
       </c>
       <c r="D44" t="n">
+        <v>16579588</v>
+      </c>
+      <c r="E44" t="n">
         <v>4945735</v>
       </c>
-      <c r="E44" t="n">
-        <v>0</v>
-      </c>
       <c r="F44" t="n">
+        <v>0</v>
+      </c>
+      <c r="G44" t="n">
         <v>3419009</v>
       </c>
-      <c r="G44" t="n">
+      <c r="H44" t="n">
         <v>1220922</v>
       </c>
-      <c r="H44" t="n">
+      <c r="I44" t="n">
         <v>5986526</v>
       </c>
-      <c r="I44" t="n">
+      <c r="J44" t="n">
         <v>1007396</v>
       </c>
     </row>
@@ -1914,21 +2048,24 @@
         <v>147821283</v>
       </c>
       <c r="D45" t="n">
+        <v>17055300</v>
+      </c>
+      <c r="E45" t="n">
         <v>4989913</v>
       </c>
-      <c r="E45" t="n">
-        <v>0</v>
-      </c>
       <c r="F45" t="n">
+        <v>0</v>
+      </c>
+      <c r="G45" t="n">
         <v>3543451</v>
       </c>
-      <c r="G45" t="n">
+      <c r="H45" t="n">
         <v>1267870</v>
       </c>
-      <c r="H45" t="n">
+      <c r="I45" t="n">
         <v>6219089</v>
       </c>
-      <c r="I45" t="n">
+      <c r="J45" t="n">
         <v>1034977</v>
       </c>
     </row>
@@ -1947,21 +2084,24 @@
         <v>150813074</v>
       </c>
       <c r="D46" t="n">
+        <v>17505576</v>
+      </c>
+      <c r="E46" t="n">
         <v>5025913</v>
       </c>
-      <c r="E46" t="n">
-        <v>0</v>
-      </c>
       <c r="F46" t="n">
+        <v>0</v>
+      </c>
+      <c r="G46" t="n">
         <v>3617321</v>
       </c>
-      <c r="G46" t="n">
+      <c r="H46" t="n">
         <v>1314412</v>
       </c>
-      <c r="H46" t="n">
+      <c r="I46" t="n">
         <v>6484687</v>
       </c>
-      <c r="I46" t="n">
+      <c r="J46" t="n">
         <v>1063243</v>
       </c>
     </row>
@@ -1980,21 +2120,24 @@
         <v>153808189</v>
       </c>
       <c r="D47" t="n">
+        <v>17776758</v>
+      </c>
+      <c r="E47" t="n">
         <v>5067763</v>
       </c>
-      <c r="E47" t="n">
-        <v>0</v>
-      </c>
       <c r="F47" t="n">
+        <v>0</v>
+      </c>
+      <c r="G47" t="n">
         <v>3674475</v>
       </c>
-      <c r="G47" t="n">
+      <c r="H47" t="n">
         <v>1374040</v>
       </c>
-      <c r="H47" t="n">
+      <c r="I47" t="n">
         <v>6562220</v>
       </c>
-      <c r="I47" t="n">
+      <c r="J47" t="n">
         <v>1098260</v>
       </c>
     </row>
@@ -2013,21 +2156,24 @@
         <v>156658943</v>
       </c>
       <c r="D48" t="n">
+        <v>18010188</v>
+      </c>
+      <c r="E48" t="n">
         <v>5102791</v>
       </c>
-      <c r="E48" t="n">
-        <v>0</v>
-      </c>
       <c r="F48" t="n">
+        <v>0</v>
+      </c>
+      <c r="G48" t="n">
         <v>3739634</v>
       </c>
-      <c r="G48" t="n">
+      <c r="H48" t="n">
         <v>1433072</v>
       </c>
-      <c r="H48" t="n">
+      <c r="I48" t="n">
         <v>6600999</v>
       </c>
-      <c r="I48" t="n">
+      <c r="J48" t="n">
         <v>1133692</v>
       </c>
     </row>
@@ -2046,21 +2192,24 @@
         <v>159733544</v>
       </c>
       <c r="D49" t="n">
+        <v>18297451</v>
+      </c>
+      <c r="E49" t="n">
         <v>5141480</v>
       </c>
-      <c r="E49" t="n">
-        <v>0</v>
-      </c>
       <c r="F49" t="n">
+        <v>0</v>
+      </c>
+      <c r="G49" t="n">
         <v>3812879</v>
       </c>
-      <c r="G49" t="n">
+      <c r="H49" t="n">
         <v>1477883</v>
       </c>
-      <c r="H49" t="n">
+      <c r="I49" t="n">
         <v>6703357</v>
       </c>
-      <c r="I49" t="n">
+      <c r="J49" t="n">
         <v>1161852</v>
       </c>
     </row>
@@ -2079,21 +2228,24 @@
         <v>163337678</v>
       </c>
       <c r="D50" t="n">
+        <v>18650459</v>
+      </c>
+      <c r="E50" t="n">
         <v>5233452</v>
       </c>
-      <c r="E50" t="n">
-        <v>0</v>
-      </c>
       <c r="F50" t="n">
+        <v>0</v>
+      </c>
+      <c r="G50" t="n">
         <v>3944254</v>
       </c>
-      <c r="G50" t="n">
+      <c r="H50" t="n">
         <v>1520005</v>
       </c>
-      <c r="H50" t="n">
+      <c r="I50" t="n">
         <v>6768519</v>
       </c>
-      <c r="I50" t="n">
+      <c r="J50" t="n">
         <v>1184229</v>
       </c>
     </row>
@@ -2112,21 +2264,24 @@
         <v>167422510</v>
       </c>
       <c r="D51" t="n">
+        <v>19184370</v>
+      </c>
+      <c r="E51" t="n">
         <v>5420659</v>
       </c>
-      <c r="E51" t="n">
-        <v>0</v>
-      </c>
       <c r="F51" t="n">
+        <v>0</v>
+      </c>
+      <c r="G51" t="n">
         <v>4131297</v>
       </c>
-      <c r="G51" t="n">
+      <c r="H51" t="n">
         <v>1534459</v>
       </c>
-      <c r="H51" t="n">
+      <c r="I51" t="n">
         <v>6886232</v>
       </c>
-      <c r="I51" t="n">
+      <c r="J51" t="n">
         <v>1211723</v>
       </c>
     </row>
@@ -2145,21 +2300,24 @@
         <v>172087228</v>
       </c>
       <c r="D52" t="n">
+        <v>19677072</v>
+      </c>
+      <c r="E52" t="n">
         <v>5633313</v>
       </c>
-      <c r="E52" t="n">
-        <v>0</v>
-      </c>
       <c r="F52" t="n">
+        <v>0</v>
+      </c>
+      <c r="G52" t="n">
         <v>4260098</v>
       </c>
-      <c r="G52" t="n">
+      <c r="H52" t="n">
         <v>1550139</v>
       </c>
-      <c r="H52" t="n">
+      <c r="I52" t="n">
         <v>6993457</v>
       </c>
-      <c r="I52" t="n">
+      <c r="J52" t="n">
         <v>1240065</v>
       </c>
     </row>
@@ -2178,21 +2336,24 @@
         <v>10041276302</v>
       </c>
       <c r="D53" t="n">
+        <v>1176408191</v>
+      </c>
+      <c r="E53" t="n">
         <v>424307110</v>
       </c>
-      <c r="E53" t="n">
-        <v>0</v>
-      </c>
       <c r="F53" t="n">
+        <v>0</v>
+      </c>
+      <c r="G53" t="n">
         <v>165296057</v>
       </c>
-      <c r="G53" t="n">
+      <c r="H53" t="n">
         <v>77168889</v>
       </c>
-      <c r="H53" t="n">
+      <c r="I53" t="n">
         <v>449496837</v>
       </c>
-      <c r="I53" t="n">
+      <c r="J53" t="n">
         <v>60139298</v>
       </c>
     </row>
@@ -2211,21 +2372,24 @@
         <v>177299544</v>
       </c>
       <c r="D54" t="n">
+        <v>20288475</v>
+      </c>
+      <c r="E54" t="n">
         <v>5889377</v>
       </c>
-      <c r="E54" t="n">
-        <v>0</v>
-      </c>
       <c r="F54" t="n">
+        <v>0</v>
+      </c>
+      <c r="G54" t="n">
         <v>4444394</v>
       </c>
-      <c r="G54" t="n">
+      <c r="H54" t="n">
         <v>1564612</v>
       </c>
-      <c r="H54" t="n">
+      <c r="I54" t="n">
         <v>7117654</v>
       </c>
-      <c r="I54" t="n">
+      <c r="J54" t="n">
         <v>1272438</v>
       </c>
     </row>
@@ -2244,21 +2408,24 @@
         <v>181276093</v>
       </c>
       <c r="D55" t="n">
+        <v>20873149</v>
+      </c>
+      <c r="E55" t="n">
         <v>6068199</v>
       </c>
-      <c r="E55" t="n">
-        <v>0</v>
-      </c>
       <c r="F55" t="n">
+        <v>0</v>
+      </c>
+      <c r="G55" t="n">
         <v>4659319</v>
       </c>
-      <c r="G55" t="n">
+      <c r="H55" t="n">
         <v>1585411</v>
       </c>
-      <c r="H55" t="n">
+      <c r="I55" t="n">
         <v>7257027</v>
       </c>
-      <c r="I55" t="n">
+      <c r="J55" t="n">
         <v>1303193</v>
       </c>
     </row>
@@ -2277,21 +2444,24 @@
         <v>185139818</v>
       </c>
       <c r="D56" t="n">
+        <v>21534152</v>
+      </c>
+      <c r="E56" t="n">
         <v>6226564</v>
       </c>
-      <c r="E56" t="n">
-        <v>0</v>
-      </c>
       <c r="F56" t="n">
+        <v>0</v>
+      </c>
+      <c r="G56" t="n">
         <v>4896581</v>
       </c>
-      <c r="G56" t="n">
+      <c r="H56" t="n">
         <v>1621239</v>
       </c>
-      <c r="H56" t="n">
+      <c r="I56" t="n">
         <v>7452352</v>
       </c>
-      <c r="I56" t="n">
+      <c r="J56" t="n">
         <v>1337416</v>
       </c>
     </row>
@@ -2310,21 +2480,24 @@
         <v>188502196</v>
       </c>
       <c r="D57" t="n">
+        <v>21886301</v>
+      </c>
+      <c r="E57" t="n">
         <v>6281203</v>
       </c>
-      <c r="E57" t="n">
-        <v>0</v>
-      </c>
       <c r="F57" t="n">
+        <v>0</v>
+      </c>
+      <c r="G57" t="n">
         <v>5027752</v>
       </c>
-      <c r="G57" t="n">
+      <c r="H57" t="n">
         <v>1678122</v>
       </c>
-      <c r="H57" t="n">
+      <c r="I57" t="n">
         <v>7527603</v>
       </c>
-      <c r="I57" t="n">
+      <c r="J57" t="n">
         <v>1371621</v>
       </c>
     </row>
@@ -2343,21 +2516,24 @@
         <v>191766723</v>
       </c>
       <c r="D58" t="n">
+        <v>22283373</v>
+      </c>
+      <c r="E58" t="n">
         <v>6341902</v>
       </c>
-      <c r="E58" t="n">
-        <v>0</v>
-      </c>
       <c r="F58" t="n">
+        <v>0</v>
+      </c>
+      <c r="G58" t="n">
         <v>5177506</v>
       </c>
-      <c r="G58" t="n">
+      <c r="H58" t="n">
         <v>1738048</v>
       </c>
-      <c r="H58" t="n">
+      <c r="I58" t="n">
         <v>7626480</v>
       </c>
-      <c r="I58" t="n">
+      <c r="J58" t="n">
         <v>1399437</v>
       </c>
     </row>
@@ -2376,21 +2552,24 @@
         <v>194789233</v>
       </c>
       <c r="D59" t="n">
+        <v>22628379</v>
+      </c>
+      <c r="E59" t="n">
         <v>6388941</v>
       </c>
-      <c r="E59" t="n">
-        <v>0</v>
-      </c>
       <c r="F59" t="n">
+        <v>0</v>
+      </c>
+      <c r="G59" t="n">
         <v>5318761</v>
       </c>
-      <c r="G59" t="n">
+      <c r="H59" t="n">
         <v>1803639</v>
       </c>
-      <c r="H59" t="n">
+      <c r="I59" t="n">
         <v>7684982</v>
       </c>
-      <c r="I59" t="n">
+      <c r="J59" t="n">
         <v>1432056</v>
       </c>
     </row>
@@ -2409,21 +2588,24 @@
         <v>197859741</v>
       </c>
       <c r="D60" t="n">
+        <v>22955535</v>
+      </c>
+      <c r="E60" t="n">
         <v>6436953</v>
       </c>
-      <c r="E60" t="n">
-        <v>0</v>
-      </c>
       <c r="F60" t="n">
+        <v>0</v>
+      </c>
+      <c r="G60" t="n">
         <v>5463842</v>
       </c>
-      <c r="G60" t="n">
+      <c r="H60" t="n">
         <v>1861151</v>
       </c>
-      <c r="H60" t="n">
+      <c r="I60" t="n">
         <v>7729262</v>
       </c>
-      <c r="I60" t="n">
+      <c r="J60" t="n">
         <v>1464327</v>
       </c>
     </row>
@@ -2442,21 +2624,24 @@
         <v>200605482</v>
       </c>
       <c r="D61" t="n">
+        <v>23230748</v>
+      </c>
+      <c r="E61" t="n">
         <v>6477963</v>
       </c>
-      <c r="E61" t="n">
-        <v>0</v>
-      </c>
       <c r="F61" t="n">
+        <v>0</v>
+      </c>
+      <c r="G61" t="n">
         <v>5567260</v>
       </c>
-      <c r="G61" t="n">
+      <c r="H61" t="n">
         <v>1917092</v>
       </c>
-      <c r="H61" t="n">
+      <c r="I61" t="n">
         <v>7772559</v>
       </c>
-      <c r="I61" t="n">
+      <c r="J61" t="n">
         <v>1495874</v>
       </c>
     </row>
@@ -2475,21 +2660,24 @@
         <v>203690628</v>
       </c>
       <c r="D62" t="n">
+        <v>23610075</v>
+      </c>
+      <c r="E62" t="n">
         <v>6518512</v>
       </c>
-      <c r="E62" t="n">
-        <v>0</v>
-      </c>
       <c r="F62" t="n">
+        <v>0</v>
+      </c>
+      <c r="G62" t="n">
         <v>5711014</v>
       </c>
-      <c r="G62" t="n">
+      <c r="H62" t="n">
         <v>1959322</v>
       </c>
-      <c r="H62" t="n">
+      <c r="I62" t="n">
         <v>7891784</v>
       </c>
-      <c r="I62" t="n">
+      <c r="J62" t="n">
         <v>1529443</v>
       </c>
     </row>
@@ -2508,21 +2696,24 @@
         <v>207174820</v>
       </c>
       <c r="D63" t="n">
+        <v>24027434</v>
+      </c>
+      <c r="E63" t="n">
         <v>6607410</v>
       </c>
-      <c r="E63" t="n">
-        <v>0</v>
-      </c>
       <c r="F63" t="n">
+        <v>0</v>
+      </c>
+      <c r="G63" t="n">
         <v>5891976</v>
       </c>
-      <c r="G63" t="n">
+      <c r="H63" t="n">
         <v>1994941</v>
       </c>
-      <c r="H63" t="n">
+      <c r="I63" t="n">
         <v>7977691</v>
       </c>
-      <c r="I63" t="n">
+      <c r="J63" t="n">
         <v>1555416</v>
       </c>
     </row>
@@ -2541,21 +2732,24 @@
         <v>211346223</v>
       </c>
       <c r="D64" t="n">
+        <v>24639714</v>
+      </c>
+      <c r="E64" t="n">
         <v>6814789</v>
       </c>
-      <c r="E64" t="n">
-        <v>0</v>
-      </c>
       <c r="F64" t="n">
+        <v>0</v>
+      </c>
+      <c r="G64" t="n">
         <v>6142899</v>
       </c>
-      <c r="G64" t="n">
+      <c r="H64" t="n">
         <v>2011466</v>
       </c>
-      <c r="H64" t="n">
+      <c r="I64" t="n">
         <v>8080436</v>
       </c>
-      <c r="I64" t="n">
+      <c r="J64" t="n">
         <v>1590124</v>
       </c>
     </row>
@@ -2574,21 +2768,24 @@
         <v>215964587</v>
       </c>
       <c r="D65" t="n">
+        <v>25468081</v>
+      </c>
+      <c r="E65" t="n">
         <v>7067623</v>
       </c>
-      <c r="E65" t="n">
-        <v>0</v>
-      </c>
       <c r="F65" t="n">
+        <v>0</v>
+      </c>
+      <c r="G65" t="n">
         <v>6462867</v>
       </c>
-      <c r="G65" t="n">
+      <c r="H65" t="n">
         <v>2020573</v>
       </c>
-      <c r="H65" t="n">
+      <c r="I65" t="n">
         <v>8289499</v>
       </c>
-      <c r="I65" t="n">
+      <c r="J65" t="n">
         <v>1627519</v>
       </c>
     </row>
@@ -2607,21 +2804,24 @@
         <v>22437967692</v>
       </c>
       <c r="D66" t="n">
+        <v>2626241798</v>
+      </c>
+      <c r="E66" t="n">
         <v>925733656</v>
       </c>
-      <c r="E66" t="n">
-        <v>0</v>
-      </c>
       <c r="F66" t="n">
+        <v>0</v>
+      </c>
+      <c r="G66" t="n">
         <v>395356285</v>
       </c>
-      <c r="G66" t="n">
+      <c r="H66" t="n">
         <v>176093394</v>
       </c>
-      <c r="H66" t="n">
+      <c r="I66" t="n">
         <v>991401003</v>
       </c>
-      <c r="I66" t="n">
+      <c r="J66" t="n">
         <v>137657460</v>
       </c>
     </row>
@@ -2640,21 +2840,24 @@
         <v>220285952</v>
       </c>
       <c r="D67" t="n">
+        <v>26511685</v>
+      </c>
+      <c r="E67" t="n">
         <v>7309188</v>
       </c>
-      <c r="E67" t="n">
-        <v>0</v>
-      </c>
       <c r="F67" t="n">
+        <v>0</v>
+      </c>
+      <c r="G67" t="n">
         <v>6862398</v>
       </c>
-      <c r="G67" t="n">
+      <c r="H67" t="n">
         <v>2029410</v>
       </c>
-      <c r="H67" t="n">
+      <c r="I67" t="n">
         <v>8641798</v>
       </c>
-      <c r="I67" t="n">
+      <c r="J67" t="n">
         <v>1668891</v>
       </c>
     </row>
@@ -2673,21 +2876,24 @@
         <v>224736359</v>
       </c>
       <c r="D68" t="n">
+        <v>27298953</v>
+      </c>
+      <c r="E68" t="n">
         <v>7534202</v>
       </c>
-      <c r="E68" t="n">
-        <v>0</v>
-      </c>
       <c r="F68" t="n">
+        <v>0</v>
+      </c>
+      <c r="G68" t="n">
         <v>7090097</v>
       </c>
-      <c r="G68" t="n">
+      <c r="H68" t="n">
         <v>2052536</v>
       </c>
-      <c r="H68" t="n">
+      <c r="I68" t="n">
         <v>8917010</v>
       </c>
-      <c r="I68" t="n">
+      <c r="J68" t="n">
         <v>1705108</v>
       </c>
     </row>
@@ -2706,21 +2912,24 @@
         <v>229103400</v>
       </c>
       <c r="D69" t="n">
+        <v>28141956</v>
+      </c>
+      <c r="E69" t="n">
         <v>7772219</v>
       </c>
-      <c r="E69" t="n">
-        <v>0</v>
-      </c>
       <c r="F69" t="n">
+        <v>0</v>
+      </c>
+      <c r="G69" t="n">
         <v>7377236</v>
       </c>
-      <c r="G69" t="n">
+      <c r="H69" t="n">
         <v>2088347</v>
       </c>
-      <c r="H69" t="n">
+      <c r="I69" t="n">
         <v>9157763</v>
       </c>
-      <c r="I69" t="n">
+      <c r="J69" t="n">
         <v>1746391</v>
       </c>
     </row>
@@ -2739,21 +2948,24 @@
         <v>232341696</v>
       </c>
       <c r="D70" t="n">
+        <v>28661777</v>
+      </c>
+      <c r="E70" t="n">
         <v>7805500</v>
       </c>
-      <c r="E70" t="n">
-        <v>0</v>
-      </c>
       <c r="F70" t="n">
+        <v>0</v>
+      </c>
+      <c r="G70" t="n">
         <v>7605366</v>
       </c>
-      <c r="G70" t="n">
+      <c r="H70" t="n">
         <v>2144059</v>
       </c>
-      <c r="H70" t="n">
+      <c r="I70" t="n">
         <v>9320670</v>
       </c>
-      <c r="I70" t="n">
+      <c r="J70" t="n">
         <v>1786182</v>
       </c>
     </row>
@@ -2772,21 +2984,24 @@
         <v>235436823</v>
       </c>
       <c r="D71" t="n">
+        <v>29036113</v>
+      </c>
+      <c r="E71" t="n">
         <v>7845488</v>
       </c>
-      <c r="E71" t="n">
-        <v>0</v>
-      </c>
       <c r="F71" t="n">
+        <v>0</v>
+      </c>
+      <c r="G71" t="n">
         <v>7742291</v>
       </c>
-      <c r="G71" t="n">
+      <c r="H71" t="n">
         <v>2209770</v>
       </c>
-      <c r="H71" t="n">
+      <c r="I71" t="n">
         <v>9413311</v>
       </c>
-      <c r="I71" t="n">
+      <c r="J71" t="n">
         <v>1825253</v>
       </c>
     </row>
@@ -2805,21 +3020,24 @@
         <v>238417853</v>
       </c>
       <c r="D72" t="n">
+        <v>29448291</v>
+      </c>
+      <c r="E72" t="n">
         <v>7881696</v>
       </c>
-      <c r="E72" t="n">
-        <v>0</v>
-      </c>
       <c r="F72" t="n">
+        <v>0</v>
+      </c>
+      <c r="G72" t="n">
         <v>7874944</v>
       </c>
-      <c r="G72" t="n">
+      <c r="H72" t="n">
         <v>2288229</v>
       </c>
-      <c r="H72" t="n">
+      <c r="I72" t="n">
         <v>9535774</v>
       </c>
-      <c r="I72" t="n">
+      <c r="J72" t="n">
         <v>1867648</v>
       </c>
     </row>
@@ -2838,21 +3056,24 @@
         <v>241479912</v>
       </c>
       <c r="D73" t="n">
+        <v>29746033</v>
+      </c>
+      <c r="E73" t="n">
         <v>7920358</v>
       </c>
-      <c r="E73" t="n">
-        <v>0</v>
-      </c>
       <c r="F73" t="n">
+        <v>0</v>
+      </c>
+      <c r="G73" t="n">
         <v>7969937</v>
       </c>
-      <c r="G73" t="n">
+      <c r="H73" t="n">
         <v>2371966</v>
       </c>
-      <c r="H73" t="n">
+      <c r="I73" t="n">
         <v>9571517</v>
       </c>
-      <c r="I73" t="n">
+      <c r="J73" t="n">
         <v>1912255</v>
       </c>
     </row>
@@ -2871,21 +3092,24 @@
         <v>244288950</v>
       </c>
       <c r="D74" t="n">
+        <v>30076757</v>
+      </c>
+      <c r="E74" t="n">
         <v>7962020</v>
       </c>
-      <c r="E74" t="n">
-        <v>0</v>
-      </c>
       <c r="F74" t="n">
+        <v>0</v>
+      </c>
+      <c r="G74" t="n">
         <v>8100311</v>
       </c>
-      <c r="G74" t="n">
+      <c r="H74" t="n">
         <v>2449156</v>
       </c>
-      <c r="H74" t="n">
+      <c r="I74" t="n">
         <v>9609619</v>
       </c>
-      <c r="I74" t="n">
+      <c r="J74" t="n">
         <v>1955651</v>
       </c>
     </row>
@@ -2904,21 +3128,24 @@
         <v>247255672</v>
       </c>
       <c r="D75" t="n">
+        <v>30543334</v>
+      </c>
+      <c r="E75" t="n">
         <v>8051306</v>
       </c>
-      <c r="E75" t="n">
-        <v>0</v>
-      </c>
       <c r="F75" t="n">
+        <v>0</v>
+      </c>
+      <c r="G75" t="n">
         <v>8244789</v>
       </c>
-      <c r="G75" t="n">
+      <c r="H75" t="n">
         <v>2517397</v>
       </c>
-      <c r="H75" t="n">
+      <c r="I75" t="n">
         <v>9729327</v>
       </c>
-      <c r="I75" t="n">
+      <c r="J75" t="n">
         <v>2000515</v>
       </c>
     </row>
@@ -2937,21 +3164,24 @@
         <v>250672822</v>
       </c>
       <c r="D76" t="n">
+        <v>31003580</v>
+      </c>
+      <c r="E76" t="n">
         <v>8137589</v>
       </c>
-      <c r="E76" t="n">
-        <v>0</v>
-      </c>
       <c r="F76" t="n">
+        <v>0</v>
+      </c>
+      <c r="G76" t="n">
         <v>8474252</v>
       </c>
-      <c r="G76" t="n">
+      <c r="H76" t="n">
         <v>2566233</v>
       </c>
-      <c r="H76" t="n">
+      <c r="I76" t="n">
         <v>9767924</v>
       </c>
-      <c r="I76" t="n">
+      <c r="J76" t="n">
         <v>2057582</v>
       </c>
     </row>
@@ -2970,21 +3200,24 @@
         <v>254615445</v>
       </c>
       <c r="D77" t="n">
+        <v>31577064</v>
+      </c>
+      <c r="E77" t="n">
         <v>8356558</v>
       </c>
-      <c r="E77" t="n">
-        <v>0</v>
-      </c>
       <c r="F77" t="n">
+        <v>0</v>
+      </c>
+      <c r="G77" t="n">
         <v>8717383</v>
       </c>
-      <c r="G77" t="n">
+      <c r="H77" t="n">
         <v>2593785</v>
       </c>
-      <c r="H77" t="n">
+      <c r="I77" t="n">
         <v>9788904</v>
       </c>
-      <c r="I77" t="n">
+      <c r="J77" t="n">
         <v>2120434</v>
       </c>
     </row>
@@ -3003,21 +3236,24 @@
         <v>258794235</v>
       </c>
       <c r="D78" t="n">
+        <v>32416557</v>
+      </c>
+      <c r="E78" t="n">
         <v>8618296</v>
       </c>
-      <c r="E78" t="n">
-        <v>0</v>
-      </c>
       <c r="F78" t="n">
+        <v>0</v>
+      </c>
+      <c r="G78" t="n">
         <v>9084771</v>
       </c>
-      <c r="G78" t="n">
+      <c r="H78" t="n">
         <v>2604590</v>
       </c>
-      <c r="H78" t="n">
+      <c r="I78" t="n">
         <v>9933626</v>
       </c>
-      <c r="I78" t="n">
+      <c r="J78" t="n">
         <v>2175274</v>
       </c>
     </row>
@@ -3036,21 +3272,24 @@
         <v>47753364503</v>
       </c>
       <c r="D79" t="n">
+        <v>5606945696</v>
+      </c>
+      <c r="E79" t="n">
         <v>1946661732</v>
       </c>
-      <c r="E79" t="n">
-        <v>0</v>
-      </c>
       <c r="F79" t="n">
+        <v>0</v>
+      </c>
+      <c r="G79" t="n">
         <v>885856345</v>
       </c>
-      <c r="G79" t="n">
+      <c r="H79" t="n">
         <v>380102266</v>
       </c>
-      <c r="H79" t="n">
+      <c r="I79" t="n">
         <v>2096189249</v>
       </c>
-      <c r="I79" t="n">
+      <c r="J79" t="n">
         <v>298136104</v>
       </c>
     </row>
@@ -3069,21 +3308,24 @@
         <v>263613888</v>
       </c>
       <c r="D80" t="n">
+        <v>33179225</v>
+      </c>
+      <c r="E80" t="n">
         <v>8871367</v>
       </c>
-      <c r="E80" t="n">
-        <v>0</v>
-      </c>
       <c r="F80" t="n">
+        <v>0</v>
+      </c>
+      <c r="G80" t="n">
         <v>9331319</v>
       </c>
-      <c r="G80" t="n">
+      <c r="H80" t="n">
         <v>2623215</v>
       </c>
-      <c r="H80" t="n">
+      <c r="I80" t="n">
         <v>10132276</v>
       </c>
-      <c r="I80" t="n">
+      <c r="J80" t="n">
         <v>2221048</v>
       </c>
     </row>
@@ -3102,21 +3344,24 @@
         <v>267648841</v>
       </c>
       <c r="D81" t="n">
+        <v>33970198</v>
+      </c>
+      <c r="E81" t="n">
         <v>9102059</v>
       </c>
-      <c r="E81" t="n">
-        <v>0</v>
-      </c>
       <c r="F81" t="n">
+        <v>0</v>
+      </c>
+      <c r="G81" t="n">
         <v>9590455</v>
       </c>
-      <c r="G81" t="n">
+      <c r="H81" t="n">
         <v>2669527</v>
       </c>
-      <c r="H81" t="n">
+      <c r="I81" t="n">
         <v>10326430</v>
       </c>
-      <c r="I81" t="n">
+      <c r="J81" t="n">
         <v>2281727</v>
       </c>
     </row>
@@ -3135,21 +3380,24 @@
         <v>271635215</v>
       </c>
       <c r="D82" t="n">
+        <v>35017695</v>
+      </c>
+      <c r="E82" t="n">
         <v>9302708</v>
       </c>
-      <c r="E82" t="n">
-        <v>0</v>
-      </c>
       <c r="F82" t="n">
+        <v>0</v>
+      </c>
+      <c r="G82" t="n">
         <v>10063808</v>
       </c>
-      <c r="G82" t="n">
+      <c r="H82" t="n">
         <v>2733949</v>
       </c>
-      <c r="H82" t="n">
+      <c r="I82" t="n">
         <v>10564900</v>
       </c>
-      <c r="I82" t="n">
+      <c r="J82" t="n">
         <v>2352330</v>
       </c>
     </row>
@@ -3168,21 +3416,24 @@
         <v>275087204</v>
       </c>
       <c r="D83" t="n">
+        <v>35619117</v>
+      </c>
+      <c r="E83" t="n">
         <v>9389409</v>
       </c>
-      <c r="E83" t="n">
-        <v>0</v>
-      </c>
       <c r="F83" t="n">
+        <v>0</v>
+      </c>
+      <c r="G83" t="n">
         <v>10294694</v>
       </c>
-      <c r="G83" t="n">
+      <c r="H83" t="n">
         <v>2803782</v>
       </c>
-      <c r="H83" t="n">
+      <c r="I83" t="n">
         <v>10710483</v>
       </c>
-      <c r="I83" t="n">
+      <c r="J83" t="n">
         <v>2420749</v>
       </c>
     </row>
@@ -3201,21 +3452,24 @@
         <v>278430135</v>
       </c>
       <c r="D84" t="n">
+        <v>36179491</v>
+      </c>
+      <c r="E84" t="n">
         <v>9428111</v>
       </c>
-      <c r="E84" t="n">
-        <v>0</v>
-      </c>
       <c r="F84" t="n">
+        <v>0</v>
+      </c>
+      <c r="G84" t="n">
         <v>10538807</v>
       </c>
-      <c r="G84" t="n">
+      <c r="H84" t="n">
         <v>2888993</v>
       </c>
-      <c r="H84" t="n">
+      <c r="I84" t="n">
         <v>10850646</v>
       </c>
-      <c r="I84" t="n">
+      <c r="J84" t="n">
         <v>2472934</v>
       </c>
     </row>
@@ -3234,21 +3488,24 @@
         <v>281391099</v>
       </c>
       <c r="D85" t="n">
+        <v>36621082</v>
+      </c>
+      <c r="E85" t="n">
         <v>9462545</v>
       </c>
-      <c r="E85" t="n">
-        <v>0</v>
-      </c>
       <c r="F85" t="n">
+        <v>0</v>
+      </c>
+      <c r="G85" t="n">
         <v>10737015</v>
       </c>
-      <c r="G85" t="n">
+      <c r="H85" t="n">
         <v>2979177</v>
       </c>
-      <c r="H85" t="n">
+      <c r="I85" t="n">
         <v>10926719</v>
       </c>
-      <c r="I85" t="n">
+      <c r="J85" t="n">
         <v>2515626</v>
       </c>
     </row>
@@ -3267,21 +3524,24 @@
         <v>284459384</v>
       </c>
       <c r="D86" t="n">
+        <v>37022851</v>
+      </c>
+      <c r="E86" t="n">
         <v>9501925</v>
       </c>
-      <c r="E86" t="n">
-        <v>0</v>
-      </c>
       <c r="F86" t="n">
+        <v>0</v>
+      </c>
+      <c r="G86" t="n">
         <v>10924012</v>
       </c>
-      <c r="G86" t="n">
+      <c r="H86" t="n">
         <v>3080126</v>
       </c>
-      <c r="H86" t="n">
+      <c r="I86" t="n">
         <v>10959261</v>
       </c>
-      <c r="I86" t="n">
+      <c r="J86" t="n">
         <v>2557527</v>
       </c>
     </row>
@@ -3300,21 +3560,24 @@
         <v>287091959</v>
       </c>
       <c r="D87" t="n">
+        <v>37432968</v>
+      </c>
+      <c r="E87" t="n">
         <v>9563144</v>
       </c>
-      <c r="E87" t="n">
-        <v>0</v>
-      </c>
       <c r="F87" t="n">
+        <v>0</v>
+      </c>
+      <c r="G87" t="n">
         <v>11085960</v>
       </c>
-      <c r="G87" t="n">
+      <c r="H87" t="n">
         <v>3171334</v>
       </c>
-      <c r="H87" t="n">
+      <c r="I87" t="n">
         <v>11018493</v>
       </c>
-      <c r="I87" t="n">
+      <c r="J87" t="n">
         <v>2594037</v>
       </c>
     </row>
@@ -3333,21 +3596,24 @@
         <v>290050277</v>
       </c>
       <c r="D88" t="n">
+        <v>37973992</v>
+      </c>
+      <c r="E88" t="n">
         <v>9644133</v>
       </c>
-      <c r="E88" t="n">
-        <v>0</v>
-      </c>
       <c r="F88" t="n">
+        <v>0</v>
+      </c>
+      <c r="G88" t="n">
         <v>11356349</v>
       </c>
-      <c r="G88" t="n">
+      <c r="H88" t="n">
         <v>3249677</v>
       </c>
-      <c r="H88" t="n">
+      <c r="I88" t="n">
         <v>11096442</v>
       </c>
-      <c r="I88" t="n">
+      <c r="J88" t="n">
         <v>2627391</v>
       </c>
     </row>
@@ -3366,21 +3632,24 @@
         <v>293420659</v>
       </c>
       <c r="D89" t="n">
+        <v>38640591</v>
+      </c>
+      <c r="E89" t="n">
         <v>9713420</v>
       </c>
-      <c r="E89" t="n">
-        <v>0</v>
-      </c>
       <c r="F89" t="n">
+        <v>0</v>
+      </c>
+      <c r="G89" t="n">
         <v>11724890</v>
       </c>
-      <c r="G89" t="n">
+      <c r="H89" t="n">
         <v>3292449</v>
       </c>
-      <c r="H89" t="n">
+      <c r="I89" t="n">
         <v>11246577</v>
       </c>
-      <c r="I89" t="n">
+      <c r="J89" t="n">
         <v>2663255</v>
       </c>
     </row>
@@ -3399,21 +3668,24 @@
         <v>297292675</v>
       </c>
       <c r="D90" t="n">
+        <v>39493188</v>
+      </c>
+      <c r="E90" t="n">
         <v>9945766</v>
       </c>
-      <c r="E90" t="n">
-        <v>0</v>
-      </c>
       <c r="F90" t="n">
+        <v>0</v>
+      </c>
+      <c r="G90" t="n">
         <v>12100786</v>
       </c>
-      <c r="G90" t="n">
+      <c r="H90" t="n">
         <v>3318636</v>
       </c>
-      <c r="H90" t="n">
+      <c r="I90" t="n">
         <v>11428238</v>
       </c>
-      <c r="I90" t="n">
+      <c r="J90" t="n">
         <v>2699762</v>
       </c>
     </row>
@@ -3432,21 +3704,24 @@
         <v>301360698</v>
       </c>
       <c r="D91" t="n">
+        <v>40618562</v>
+      </c>
+      <c r="E91" t="n">
         <v>10183036</v>
       </c>
-      <c r="E91" t="n">
-        <v>0</v>
-      </c>
       <c r="F91" t="n">
+        <v>0</v>
+      </c>
+      <c r="G91" t="n">
         <v>12623640</v>
       </c>
-      <c r="G91" t="n">
+      <c r="H91" t="n">
         <v>3344563</v>
       </c>
-      <c r="H91" t="n">
+      <c r="I91" t="n">
         <v>11719840</v>
       </c>
-      <c r="I91" t="n">
+      <c r="J91" t="n">
         <v>2747483</v>
       </c>
     </row>
@@ -3465,21 +3740,24 @@
         <v>98898211040</v>
       </c>
       <c r="D92" t="n">
+        <v>11655660352</v>
+      </c>
+      <c r="E92" t="n">
         <v>4007431087</v>
       </c>
-      <c r="E92" t="n">
-        <v>0</v>
-      </c>
       <c r="F92" t="n">
+        <v>0</v>
+      </c>
+      <c r="G92" t="n">
         <v>1902084425</v>
       </c>
-      <c r="G92" t="n">
+      <c r="H92" t="n">
         <v>796359960</v>
       </c>
-      <c r="H92" t="n">
+      <c r="I92" t="n">
         <v>4323358803</v>
       </c>
-      <c r="I92" t="n">
+      <c r="J92" t="n">
         <v>626426077</v>
       </c>
     </row>
@@ -3498,21 +3776,24 @@
         <v>305749579</v>
       </c>
       <c r="D93" t="n">
+        <v>41567968</v>
+      </c>
+      <c r="E93" t="n">
         <v>10436165</v>
       </c>
-      <c r="E93" t="n">
-        <v>0</v>
-      </c>
       <c r="F93" t="n">
+        <v>0</v>
+      </c>
+      <c r="G93" t="n">
         <v>13041083</v>
       </c>
-      <c r="G93" t="n">
+      <c r="H93" t="n">
         <v>3372609</v>
       </c>
-      <c r="H93" t="n">
+      <c r="I93" t="n">
         <v>11906380</v>
       </c>
-      <c r="I93" t="n">
+      <c r="J93" t="n">
         <v>2811731</v>
       </c>
     </row>
@@ -3531,21 +3812,24 @@
         <v>309631058</v>
       </c>
       <c r="D94" t="n">
+        <v>42742797</v>
+      </c>
+      <c r="E94" t="n">
         <v>10653891</v>
       </c>
-      <c r="E94" t="n">
-        <v>0</v>
-      </c>
       <c r="F94" t="n">
+        <v>0</v>
+      </c>
+      <c r="G94" t="n">
         <v>13629884</v>
       </c>
-      <c r="G94" t="n">
+      <c r="H94" t="n">
         <v>3412272</v>
       </c>
-      <c r="H94" t="n">
+      <c r="I94" t="n">
         <v>12167633</v>
       </c>
-      <c r="I94" t="n">
+      <c r="J94" t="n">
         <v>2879117</v>
       </c>
     </row>
@@ -3564,21 +3848,24 @@
         <v>313228271</v>
       </c>
       <c r="D95" t="n">
+        <v>43780065</v>
+      </c>
+      <c r="E95" t="n">
         <v>10883527</v>
       </c>
-      <c r="E95" t="n">
-        <v>0</v>
-      </c>
       <c r="F95" t="n">
+        <v>0</v>
+      </c>
+      <c r="G95" t="n">
         <v>14062753</v>
       </c>
-      <c r="G95" t="n">
+      <c r="H95" t="n">
         <v>3476097</v>
       </c>
-      <c r="H95" t="n">
+      <c r="I95" t="n">
         <v>12411389</v>
       </c>
-      <c r="I95" t="n">
+      <c r="J95" t="n">
         <v>2946299</v>
       </c>
     </row>
@@ -3597,21 +3884,24 @@
         <v>315971834</v>
       </c>
       <c r="D96" t="n">
+        <v>44278251</v>
+      </c>
+      <c r="E96" t="n">
         <v>10925306</v>
       </c>
-      <c r="E96" t="n">
-        <v>0</v>
-      </c>
       <c r="F96" t="n">
+        <v>0</v>
+      </c>
+      <c r="G96" t="n">
         <v>14295942</v>
       </c>
-      <c r="G96" t="n">
+      <c r="H96" t="n">
         <v>3562612</v>
       </c>
-      <c r="H96" t="n">
+      <c r="I96" t="n">
         <v>12482504</v>
       </c>
-      <c r="I96" t="n">
+      <c r="J96" t="n">
         <v>3011887</v>
       </c>
     </row>
@@ -3630,21 +3920,24 @@
         <v>318864089</v>
       </c>
       <c r="D97" t="n">
+        <v>44870241</v>
+      </c>
+      <c r="E97" t="n">
         <v>10989573</v>
       </c>
-      <c r="E97" t="n">
-        <v>0</v>
-      </c>
       <c r="F97" t="n">
+        <v>0</v>
+      </c>
+      <c r="G97" t="n">
         <v>14578294</v>
       </c>
-      <c r="G97" t="n">
+      <c r="H97" t="n">
         <v>3657979</v>
       </c>
-      <c r="H97" t="n">
+      <c r="I97" t="n">
         <v>12563780</v>
       </c>
-      <c r="I97" t="n">
+      <c r="J97" t="n">
         <v>3080615</v>
       </c>
     </row>
@@ -3663,21 +3956,24 @@
         <v>321632796</v>
       </c>
       <c r="D98" t="n">
+        <v>45376938</v>
+      </c>
+      <c r="E98" t="n">
         <v>11073251</v>
       </c>
-      <c r="E98" t="n">
-        <v>0</v>
-      </c>
       <c r="F98" t="n">
+        <v>0</v>
+      </c>
+      <c r="G98" t="n">
         <v>14768148</v>
       </c>
-      <c r="G98" t="n">
+      <c r="H98" t="n">
         <v>3743552</v>
       </c>
-      <c r="H98" t="n">
+      <c r="I98" t="n">
         <v>12647419</v>
       </c>
-      <c r="I98" t="n">
+      <c r="J98" t="n">
         <v>3144568</v>
       </c>
     </row>
@@ -3696,21 +3992,24 @@
         <v>324527926</v>
       </c>
       <c r="D99" t="n">
+        <v>45825217</v>
+      </c>
+      <c r="E99" t="n">
         <v>11120966</v>
       </c>
-      <c r="E99" t="n">
-        <v>0</v>
-      </c>
       <c r="F99" t="n">
+        <v>0</v>
+      </c>
+      <c r="G99" t="n">
         <v>14941314</v>
       </c>
-      <c r="G99" t="n">
+      <c r="H99" t="n">
         <v>3847291</v>
       </c>
-      <c r="H99" t="n">
+      <c r="I99" t="n">
         <v>12695857</v>
       </c>
-      <c r="I99" t="n">
+      <c r="J99" t="n">
         <v>3219789</v>
       </c>
     </row>
@@ -3729,21 +4028,24 @@
         <v>327240982</v>
       </c>
       <c r="D100" t="n">
+        <v>46209598</v>
+      </c>
+      <c r="E100" t="n">
         <v>11155671</v>
       </c>
-      <c r="E100" t="n">
-        <v>0</v>
-      </c>
       <c r="F100" t="n">
+        <v>0</v>
+      </c>
+      <c r="G100" t="n">
         <v>15118170</v>
       </c>
-      <c r="G100" t="n">
+      <c r="H100" t="n">
         <v>3938017</v>
       </c>
-      <c r="H100" t="n">
+      <c r="I100" t="n">
         <v>12733803</v>
       </c>
-      <c r="I100" t="n">
+      <c r="J100" t="n">
         <v>3263937</v>
       </c>
     </row>
@@ -3762,21 +4064,24 @@
         <v>330170893</v>
       </c>
       <c r="D101" t="n">
+        <v>46723513</v>
+      </c>
+      <c r="E101" t="n">
         <v>11238295</v>
       </c>
-      <c r="E101" t="n">
-        <v>0</v>
-      </c>
       <c r="F101" t="n">
+        <v>0</v>
+      </c>
+      <c r="G101" t="n">
         <v>15335280</v>
       </c>
-      <c r="G101" t="n">
+      <c r="H101" t="n">
         <v>4016289</v>
       </c>
-      <c r="H101" t="n">
+      <c r="I101" t="n">
         <v>12827443</v>
       </c>
-      <c r="I101" t="n">
+      <c r="J101" t="n">
         <v>3306206</v>
       </c>
     </row>
@@ -3795,21 +4100,24 @@
         <v>333731452</v>
       </c>
       <c r="D102" t="n">
+        <v>47434241</v>
+      </c>
+      <c r="E102" t="n">
         <v>11322892</v>
       </c>
-      <c r="E102" t="n">
-        <v>0</v>
-      </c>
       <c r="F102" t="n">
+        <v>0</v>
+      </c>
+      <c r="G102" t="n">
         <v>15772268</v>
       </c>
-      <c r="G102" t="n">
+      <c r="H102" t="n">
         <v>4055741</v>
       </c>
-      <c r="H102" t="n">
+      <c r="I102" t="n">
         <v>12927261</v>
       </c>
-      <c r="I102" t="n">
+      <c r="J102" t="n">
         <v>3356079</v>
       </c>
     </row>
@@ -3828,21 +4136,24 @@
         <v>337336630</v>
       </c>
       <c r="D103" t="n">
+        <v>48149898</v>
+      </c>
+      <c r="E103" t="n">
         <v>11520006</v>
       </c>
-      <c r="E103" t="n">
-        <v>0</v>
-      </c>
       <c r="F103" t="n">
+        <v>0</v>
+      </c>
+      <c r="G103" t="n">
         <v>16070737</v>
       </c>
-      <c r="G103" t="n">
+      <c r="H103" t="n">
         <v>4096307</v>
       </c>
-      <c r="H103" t="n">
+      <c r="I103" t="n">
         <v>13039828</v>
       </c>
-      <c r="I103" t="n">
+      <c r="J103" t="n">
         <v>3423020</v>
       </c>
     </row>
@@ -3861,21 +4172,24 @@
         <v>341586294</v>
       </c>
       <c r="D104" t="n">
+        <v>49042650</v>
+      </c>
+      <c r="E104" t="n">
         <v>11723938</v>
       </c>
-      <c r="E104" t="n">
-        <v>0</v>
-      </c>
       <c r="F104" t="n">
+        <v>0</v>
+      </c>
+      <c r="G104" t="n">
         <v>16510775</v>
       </c>
-      <c r="G104" t="n">
+      <c r="H104" t="n">
         <v>4115028</v>
       </c>
-      <c r="H104" t="n">
+      <c r="I104" t="n">
         <v>13210499</v>
       </c>
-      <c r="I104" t="n">
+      <c r="J104" t="n">
         <v>3482410</v>
       </c>
     </row>
@@ -3894,21 +4208,24 @@
         <v>201676093884</v>
       </c>
       <c r="D105" t="n">
+        <v>23857322081</v>
+      </c>
+      <c r="E105" t="n">
         <v>8147905655</v>
       </c>
-      <c r="E105" t="n">
-        <v>0</v>
-      </c>
       <c r="F105" t="n">
+        <v>0</v>
+      </c>
+      <c r="G105" t="n">
         <v>3982293498</v>
       </c>
-      <c r="G105" t="n">
+      <c r="H105" t="n">
         <v>1638013714</v>
       </c>
-      <c r="H105" t="n">
+      <c r="I105" t="n">
         <v>8798331402</v>
       </c>
-      <c r="I105" t="n">
+      <c r="J105" t="n">
         <v>1290777812</v>
       </c>
     </row>
@@ -3927,21 +4244,24 @@
         <v>346256832</v>
       </c>
       <c r="D106" t="n">
+        <v>50108035</v>
+      </c>
+      <c r="E106" t="n">
         <v>11939327</v>
       </c>
-      <c r="E106" t="n">
-        <v>0</v>
-      </c>
       <c r="F106" t="n">
+        <v>0</v>
+      </c>
+      <c r="G106" t="n">
         <v>16958871</v>
       </c>
-      <c r="G106" t="n">
+      <c r="H106" t="n">
         <v>4134197</v>
       </c>
-      <c r="H106" t="n">
+      <c r="I106" t="n">
         <v>13528695</v>
       </c>
-      <c r="I106" t="n">
+      <c r="J106" t="n">
         <v>3546945</v>
       </c>
     </row>
@@ -3960,21 +4280,24 @@
         <v>350096320</v>
       </c>
       <c r="D107" t="n">
+        <v>51108162</v>
+      </c>
+      <c r="E107" t="n">
         <v>12154080</v>
       </c>
-      <c r="E107" t="n">
-        <v>0</v>
-      </c>
       <c r="F107" t="n">
+        <v>0</v>
+      </c>
+      <c r="G107" t="n">
         <v>17383226</v>
       </c>
-      <c r="G107" t="n">
+      <c r="H107" t="n">
         <v>4175528</v>
       </c>
-      <c r="H107" t="n">
+      <c r="I107" t="n">
         <v>13788166</v>
       </c>
-      <c r="I107" t="n">
+      <c r="J107" t="n">
         <v>3607162</v>
       </c>
     </row>
@@ -3993,21 +4316,24 @@
         <v>353948863</v>
       </c>
       <c r="D108" t="n">
+        <v>51898172</v>
+      </c>
+      <c r="E108" t="n">
         <v>12344474</v>
       </c>
-      <c r="E108" t="n">
-        <v>0</v>
-      </c>
       <c r="F108" t="n">
+        <v>0</v>
+      </c>
+      <c r="G108" t="n">
         <v>17717255</v>
       </c>
-      <c r="G108" t="n">
+      <c r="H108" t="n">
         <v>4217012</v>
       </c>
-      <c r="H108" t="n">
+      <c r="I108" t="n">
         <v>13954588</v>
       </c>
-      <c r="I108" t="n">
+      <c r="J108" t="n">
         <v>3664843</v>
       </c>
     </row>
@@ -4026,21 +4352,24 @@
         <v>357368914</v>
       </c>
       <c r="D109" t="n">
+        <v>52542730</v>
+      </c>
+      <c r="E109" t="n">
         <v>12427654</v>
       </c>
-      <c r="E109" t="n">
-        <v>0</v>
-      </c>
       <c r="F109" t="n">
+        <v>0</v>
+      </c>
+      <c r="G109" t="n">
         <v>18034736</v>
       </c>
-      <c r="G109" t="n">
+      <c r="H109" t="n">
         <v>4321475</v>
       </c>
-      <c r="H109" t="n">
+      <c r="I109" t="n">
         <v>14033382</v>
       </c>
-      <c r="I109" t="n">
+      <c r="J109" t="n">
         <v>3725483</v>
       </c>
     </row>
@@ -4059,21 +4388,24 @@
         <v>360630838</v>
       </c>
       <c r="D110" t="n">
+        <v>53407162</v>
+      </c>
+      <c r="E110" t="n">
         <v>12488951</v>
       </c>
-      <c r="E110" t="n">
-        <v>0</v>
-      </c>
       <c r="F110" t="n">
+        <v>0</v>
+      </c>
+      <c r="G110" t="n">
         <v>18477308</v>
       </c>
-      <c r="G110" t="n">
+      <c r="H110" t="n">
         <v>4422327</v>
       </c>
-      <c r="H110" t="n">
+      <c r="I110" t="n">
         <v>14230256</v>
       </c>
-      <c r="I110" t="n">
+      <c r="J110" t="n">
         <v>3788320</v>
       </c>
     </row>
@@ -4092,21 +4424,24 @@
         <v>363590670</v>
       </c>
       <c r="D111" t="n">
+        <v>53848681</v>
+      </c>
+      <c r="E111" t="n">
         <v>12528733</v>
       </c>
-      <c r="E111" t="n">
-        <v>0</v>
-      </c>
       <c r="F111" t="n">
+        <v>0</v>
+      </c>
+      <c r="G111" t="n">
         <v>18609396</v>
       </c>
-      <c r="G111" t="n">
+      <c r="H111" t="n">
         <v>4528075</v>
       </c>
-      <c r="H111" t="n">
+      <c r="I111" t="n">
         <v>14332842</v>
       </c>
-      <c r="I111" t="n">
+      <c r="J111" t="n">
         <v>3849635</v>
       </c>
     </row>
@@ -4125,21 +4460,24 @@
         <v>366540251</v>
       </c>
       <c r="D112" t="n">
+        <v>54512980</v>
+      </c>
+      <c r="E112" t="n">
         <v>12572902</v>
       </c>
-      <c r="E112" t="n">
-        <v>0</v>
-      </c>
       <c r="F112" t="n">
+        <v>0</v>
+      </c>
+      <c r="G112" t="n">
         <v>18844720</v>
       </c>
-      <c r="G112" t="n">
+      <c r="H112" t="n">
         <v>4629526</v>
       </c>
-      <c r="H112" t="n">
+      <c r="I112" t="n">
         <v>14544249</v>
       </c>
-      <c r="I112" t="n">
+      <c r="J112" t="n">
         <v>3921583</v>
       </c>
     </row>
@@ -4158,21 +4496,24 @@
         <v>369217152</v>
       </c>
       <c r="D113" t="n">
+        <v>55008898</v>
+      </c>
+      <c r="E113" t="n">
         <v>12609197</v>
       </c>
-      <c r="E113" t="n">
-        <v>0</v>
-      </c>
       <c r="F113" t="n">
+        <v>0</v>
+      </c>
+      <c r="G113" t="n">
         <v>19037084</v>
       </c>
-      <c r="G113" t="n">
+      <c r="H113" t="n">
         <v>4730471</v>
       </c>
-      <c r="H113" t="n">
+      <c r="I113" t="n">
         <v>14658276</v>
       </c>
-      <c r="I113" t="n">
+      <c r="J113" t="n">
         <v>3973870</v>
       </c>
     </row>
@@ -4191,21 +4532,24 @@
         <v>372194208</v>
       </c>
       <c r="D114" t="n">
+        <v>55493837</v>
+      </c>
+      <c r="E114" t="n">
         <v>12683865</v>
       </c>
-      <c r="E114" t="n">
-        <v>0</v>
-      </c>
       <c r="F114" t="n">
+        <v>0</v>
+      </c>
+      <c r="G114" t="n">
         <v>19205203</v>
       </c>
-      <c r="G114" t="n">
+      <c r="H114" t="n">
         <v>4825252</v>
       </c>
-      <c r="H114" t="n">
+      <c r="I114" t="n">
         <v>14751700</v>
       </c>
-      <c r="I114" t="n">
+      <c r="J114" t="n">
         <v>4027817</v>
       </c>
     </row>
@@ -4224,21 +4568,24 @@
         <v>375628655</v>
       </c>
       <c r="D115" t="n">
+        <v>56161473</v>
+      </c>
+      <c r="E115" t="n">
         <v>12771353</v>
       </c>
-      <c r="E115" t="n">
-        <v>0</v>
-      </c>
       <c r="F115" t="n">
+        <v>0</v>
+      </c>
+      <c r="G115" t="n">
         <v>19543735</v>
       </c>
-      <c r="G115" t="n">
+      <c r="H115" t="n">
         <v>4908877</v>
       </c>
-      <c r="H115" t="n">
+      <c r="I115" t="n">
         <v>14841659</v>
       </c>
-      <c r="I115" t="n">
+      <c r="J115" t="n">
         <v>4095849</v>
       </c>
     </row>
@@ -4257,21 +4604,24 @@
         <v>379672345</v>
       </c>
       <c r="D116" t="n">
+        <v>56847605</v>
+      </c>
+      <c r="E116" t="n">
         <v>12976136</v>
       </c>
-      <c r="E116" t="n">
-        <v>0</v>
-      </c>
       <c r="F116" t="n">
+        <v>0</v>
+      </c>
+      <c r="G116" t="n">
         <v>19809965</v>
       </c>
-      <c r="G116" t="n">
+      <c r="H116" t="n">
         <v>4942722</v>
       </c>
-      <c r="H116" t="n">
+      <c r="I116" t="n">
         <v>14951288</v>
       </c>
-      <c r="I116" t="n">
+      <c r="J116" t="n">
         <v>4167494</v>
       </c>
     </row>
@@ -4290,21 +4640,24 @@
         <v>384099352</v>
       </c>
       <c r="D117" t="n">
+        <v>57880693</v>
+      </c>
+      <c r="E117" t="n">
         <v>13228883</v>
       </c>
-      <c r="E117" t="n">
-        <v>0</v>
-      </c>
       <c r="F117" t="n">
+        <v>0</v>
+      </c>
+      <c r="G117" t="n">
         <v>20276657</v>
       </c>
-      <c r="G117" t="n">
+      <c r="H117" t="n">
         <v>4966909</v>
       </c>
-      <c r="H117" t="n">
+      <c r="I117" t="n">
         <v>15169325</v>
       </c>
-      <c r="I117" t="n">
+      <c r="J117" t="n">
         <v>4238919</v>
       </c>
     </row>
@@ -4323,21 +4676,24 @@
         <v>407731432168</v>
       </c>
       <c r="D118" t="n">
+        <v>48363462590</v>
+      </c>
+      <c r="E118" t="n">
         <v>16446536865</v>
       </c>
-      <c r="E118" t="n">
-        <v>0</v>
-      </c>
       <c r="F118" t="n">
+        <v>0</v>
+      </c>
+      <c r="G118" t="n">
         <v>8188485152</v>
       </c>
-      <c r="G118" t="n">
+      <c r="H118" t="n">
         <v>3330829799</v>
       </c>
-      <c r="H118" t="n">
+      <c r="I118" t="n">
         <v>17769447230</v>
       </c>
-      <c r="I118" t="n">
+      <c r="J118" t="n">
         <v>2628163544</v>
       </c>
     </row>
